--- a/static/8-1-BTS-SIO-2025-Annexe-8-1-Epreuve-E5-Tableau-de-synthèse.xlsx
+++ b/static/8-1-BTS-SIO-2025-Annexe-8-1-Epreuve-E5-Tableau-de-synthèse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIO MARILLAC\SIO1\Formation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F1F6BC-7E9F-4EDF-8CDF-9EB0EDEEF6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EE2513-AFBA-40F5-AB49-B82CA647F4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-3795" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -199,13 +199,13 @@
     <t>Utilisation et configuration d’un pare-feu pfSense</t>
   </si>
   <si>
-    <t>Configuration et utilisation d’un bastion (Guacamole)</t>
-  </si>
-  <si>
     <t>Mise en place de Zabbix + Grafana (intégration à l’AD)</t>
   </si>
   <si>
     <t>Adresse URL du portfolio : enzocuny-bts-sio-sisr.netlify.app</t>
+  </si>
+  <si>
+    <t>Conception et mise en œuvre d'une solution de sauvegarde automatisée et sécurisée (Debian/Zorin OS)</t>
   </si>
 </sst>
 </file>
@@ -739,15 +739,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -780,36 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1121,8 +1121,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1135,81 +1135,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="41" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="42"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="A5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1232,8 +1232,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="20" t="s">
         <v>9</v>
       </c>
@@ -1289,16 +1289,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1745,15 +1745,19 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G17" s="16" t="s">
         <v>24</v>
       </c>
@@ -1796,7 +1800,7 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="16" t="s">
@@ -1846,16 +1850,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2240,16 +2244,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2603,7 +2607,7 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="18" t="str">
-        <f t="shared" ref="C34:D34" si="0">$G$33</f>
+        <f t="shared" ref="C34" si="0">$G$33</f>
         <v>x</v>
       </c>
       <c r="D34" s="18" t="str">
@@ -2743,12 +2747,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2756,6 +2754,12 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2766,6 +2770,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2f87cbb3-84fe-48aa-94bc-fba7d6cea715" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="da94cc6b-daf9-4478-a76e-7ac399e2172b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A987D31D37F414BB32E17B7A2C5C546" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="4a829eba0f69f4386678b4d7f89b2110">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da94cc6b-daf9-4478-a76e-7ac399e2172b" xmlns:ns3="2f87cbb3-84fe-48aa-94bc-fba7d6cea715" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e41d91761d073d3b1e33aa1b14508b11" ns2:_="" ns3:_="">
     <xsd:import namespace="da94cc6b-daf9-4478-a76e-7ac399e2172b"/>
@@ -3000,27 +3024,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82AF9002-BD3C-4B34-8397-4B533B4D96E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="da94cc6b-daf9-4478-a76e-7ac399e2172b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2f87cbb3-84fe-48aa-94bc-fba7d6cea715"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2f87cbb3-84fe-48aa-94bc-fba7d6cea715" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="da94cc6b-daf9-4478-a76e-7ac399e2172b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0FE3E99-E4C9-46B4-94EB-708559ADE19E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C294154B-1D74-4E07-A2EC-4D2E4744AB1A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3037,29 +3066,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0FE3E99-E4C9-46B4-94EB-708559ADE19E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82AF9002-BD3C-4B34-8397-4B533B4D96E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="da94cc6b-daf9-4478-a76e-7ac399e2172b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2f87cbb3-84fe-48aa-94bc-fba7d6cea715"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>